--- a/Finance_Record.xlsx
+++ b/Finance_Record.xlsx
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -497,6 +497,20 @@
       </c>
       <c r="G3" s="3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45974</v>
+      </c>
+      <c r="B4">
+        <v>500000</v>
+      </c>
+      <c r="C4">
+        <v>50000</v>
+      </c>
+      <c r="D4">
+        <v>500000</v>
       </c>
     </row>
   </sheetData>
